--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3202,28 +3202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2509.256280757706</v>
+        <v>2606.73574481256</v>
       </c>
       <c r="AB2" t="n">
-        <v>3433.275143907143</v>
+        <v>3566.650847117442</v>
       </c>
       <c r="AC2" t="n">
-        <v>3105.608182804444</v>
+        <v>3226.254696094322</v>
       </c>
       <c r="AD2" t="n">
-        <v>2509256.280757707</v>
+        <v>2606735.74481256</v>
       </c>
       <c r="AE2" t="n">
-        <v>3433275.143907143</v>
+        <v>3566650.847117443</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019294494980186e-06</v>
+        <v>1.885961681719827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.909375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3105608.182804444</v>
+        <v>3226254.696094322</v>
       </c>
     </row>
     <row r="3">
@@ -3308,28 +3308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>836.9046753084103</v>
+        <v>897.7119966676579</v>
       </c>
       <c r="AB3" t="n">
-        <v>1145.089898385444</v>
+        <v>1228.289158098855</v>
       </c>
       <c r="AC3" t="n">
-        <v>1035.804125627303</v>
+        <v>1111.06296476456</v>
       </c>
       <c r="AD3" t="n">
-        <v>836904.6753084103</v>
+        <v>897711.9966676579</v>
       </c>
       <c r="AE3" t="n">
-        <v>1145089.898385444</v>
+        <v>1228289.158098855</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>3.549775594145906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.920833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1035804.125627303</v>
+        <v>1111062.96476456</v>
       </c>
     </row>
     <row r="4">
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.0121885787868</v>
+        <v>685.7092501789281</v>
       </c>
       <c r="AB4" t="n">
-        <v>871.5881794078471</v>
+        <v>938.2176474518942</v>
       </c>
       <c r="AC4" t="n">
-        <v>788.4050268468544</v>
+        <v>848.6754719758231</v>
       </c>
       <c r="AD4" t="n">
-        <v>637012.1885787868</v>
+        <v>685709.250178928</v>
       </c>
       <c r="AE4" t="n">
-        <v>871588.1794078471</v>
+        <v>938217.6474518942</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.247349605720591e-06</v>
+        <v>4.158185159137531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>788405.0268468544</v>
+        <v>848675.4719758232</v>
       </c>
     </row>
     <row r="5">
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>558.0861733082546</v>
+        <v>594.5877238032684</v>
       </c>
       <c r="AB5" t="n">
-        <v>763.5981233446565</v>
+        <v>813.5411550666906</v>
       </c>
       <c r="AC5" t="n">
-        <v>690.7213901693389</v>
+        <v>735.8979290393074</v>
       </c>
       <c r="AD5" t="n">
-        <v>558086.1733082546</v>
+        <v>594587.7238032684</v>
       </c>
       <c r="AE5" t="n">
-        <v>763598.1233446565</v>
+        <v>813541.1550666906</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.420076767886977e-06</v>
+        <v>4.477775631608732e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.279166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>690721.3901693389</v>
+        <v>735897.9290393074</v>
       </c>
     </row>
     <row r="6">
@@ -3626,28 +3626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>494.3749569627586</v>
+        <v>542.986677708328</v>
       </c>
       <c r="AB6" t="n">
-        <v>676.4256264002557</v>
+        <v>742.9383273221049</v>
       </c>
       <c r="AC6" t="n">
-        <v>611.8685139859439</v>
+        <v>672.0333360829737</v>
       </c>
       <c r="AD6" t="n">
-        <v>494374.9569627586</v>
+        <v>542986.677708328</v>
       </c>
       <c r="AE6" t="n">
-        <v>676425.6264002557</v>
+        <v>742938.3273221049</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.535909003326259e-06</v>
+        <v>4.692095593722019e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.992708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>611868.5139859439</v>
+        <v>672033.3360829738</v>
       </c>
     </row>
     <row r="7">
@@ -3732,28 +3732,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>458.260331343576</v>
+        <v>494.8471331846105</v>
       </c>
       <c r="AB7" t="n">
-        <v>627.0120023632547</v>
+        <v>677.0716787379383</v>
       </c>
       <c r="AC7" t="n">
-        <v>567.1708568745775</v>
+        <v>612.4529079952581</v>
       </c>
       <c r="AD7" t="n">
-        <v>458260.331343576</v>
+        <v>494847.1331846105</v>
       </c>
       <c r="AE7" t="n">
-        <v>627012.0023632548</v>
+        <v>677071.6787379383</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606662950666375e-06</v>
+        <v>4.823008920705577e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.830208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>567170.8568745775</v>
+        <v>612452.9079952581</v>
       </c>
     </row>
     <row r="8">
@@ -3838,28 +3838,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>445.7817225020648</v>
+        <v>482.3685243430993</v>
       </c>
       <c r="AB8" t="n">
-        <v>609.9382192289307</v>
+        <v>659.9978956036142</v>
       </c>
       <c r="AC8" t="n">
-        <v>551.726571639388</v>
+        <v>597.0086227600688</v>
       </c>
       <c r="AD8" t="n">
-        <v>445781.7225020648</v>
+        <v>482368.5243430993</v>
       </c>
       <c r="AE8" t="n">
-        <v>609938.2192289308</v>
+        <v>659997.8956036142</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.630150343494744e-06</v>
+        <v>4.866466746776408e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.778125</v>
       </c>
       <c r="AH8" t="n">
-        <v>551726.571639388</v>
+        <v>597008.6227600687</v>
       </c>
     </row>
     <row r="9">
@@ -3944,28 +3944,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>447.0166865655881</v>
+        <v>483.6034884066227</v>
       </c>
       <c r="AB9" t="n">
-        <v>611.6279515434127</v>
+        <v>661.6876279180962</v>
       </c>
       <c r="AC9" t="n">
-        <v>553.2550382733301</v>
+        <v>598.5370893940108</v>
       </c>
       <c r="AD9" t="n">
-        <v>447016.6865655881</v>
+        <v>483603.4884066227</v>
       </c>
       <c r="AE9" t="n">
-        <v>611627.9515434126</v>
+        <v>661687.6279180961</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.630442112349754e-06</v>
+        <v>4.867006595547473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.777083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>553255.0382733301</v>
+        <v>598537.0893940107</v>
       </c>
     </row>
     <row r="10">
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>447.193020282273</v>
+        <v>483.7798221233076</v>
       </c>
       <c r="AB10" t="n">
-        <v>611.8692191138756</v>
+        <v>661.9288954885591</v>
       </c>
       <c r="AC10" t="n">
-        <v>553.4732796054891</v>
+        <v>598.75533072617</v>
       </c>
       <c r="AD10" t="n">
-        <v>447193.0202822731</v>
+        <v>483779.8221233076</v>
       </c>
       <c r="AE10" t="n">
-        <v>611869.2191138756</v>
+        <v>661928.895488559</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.635256298457433e-06</v>
+        <v>4.875914100270066e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.766666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>553473.2796054891</v>
+        <v>598755.33072617</v>
       </c>
     </row>
   </sheetData>
@@ -4347,28 +4347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1502.877566007734</v>
+        <v>1573.459838804037</v>
       </c>
       <c r="AB2" t="n">
-        <v>2056.303388090613</v>
+        <v>2152.877167600625</v>
       </c>
       <c r="AC2" t="n">
-        <v>1860.052678771176</v>
+        <v>1947.409592306903</v>
       </c>
       <c r="AD2" t="n">
-        <v>1502877.566007734</v>
+        <v>1573459.838804037</v>
       </c>
       <c r="AE2" t="n">
-        <v>2056303.388090613</v>
+        <v>2152877.167600625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.346919937956274e-06</v>
+        <v>2.567437275129441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1860052.678771176</v>
+        <v>1947409.592306903</v>
       </c>
     </row>
     <row r="3">
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.9692897072242</v>
+        <v>691.2605156139269</v>
       </c>
       <c r="AB3" t="n">
-        <v>897.5261215000518</v>
+        <v>945.8131337246064</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.8674881499093</v>
+        <v>855.5460556989997</v>
       </c>
       <c r="AD3" t="n">
-        <v>655969.2897072242</v>
+        <v>691260.5156139269</v>
       </c>
       <c r="AE3" t="n">
-        <v>897526.1215000518</v>
+        <v>945813.1337246064</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.17438907182902e-06</v>
+        <v>4.144721149587114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.230208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>811867.4881499093</v>
+        <v>855546.0556989997</v>
       </c>
     </row>
     <row r="4">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.4192762699469</v>
+        <v>549.6251613220779</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.8511483693084</v>
+        <v>752.0213934716651</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.6765826302319</v>
+        <v>680.2495271473834</v>
       </c>
       <c r="AD4" t="n">
-        <v>514419.2762699469</v>
+        <v>549625.161322078</v>
       </c>
       <c r="AE4" t="n">
-        <v>703851.1483693083</v>
+        <v>752021.3934716651</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47169240827427e-06</v>
+        <v>4.711427192388794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.360416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>636676.5826302319</v>
+        <v>680249.5271473834</v>
       </c>
     </row>
     <row r="5">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.5872883557502</v>
+        <v>484.4714551774758</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.7262329170228</v>
+        <v>662.8752183459687</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.584641564967</v>
+        <v>599.611337858241</v>
       </c>
       <c r="AD5" t="n">
-        <v>437587.2883557501</v>
+        <v>484471.4551774758</v>
       </c>
       <c r="AE5" t="n">
-        <v>598726.2329170228</v>
+        <v>662875.2183459688</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63271913923218e-06</v>
+        <v>5.018368993236202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.970833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>541584.641564967</v>
+        <v>599611.3378582409</v>
       </c>
     </row>
     <row r="6">
@@ -4771,28 +4771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.5084245938846</v>
+        <v>446.7995609920362</v>
       </c>
       <c r="AB6" t="n">
-        <v>563.0439809997686</v>
+        <v>611.3308707547747</v>
       </c>
       <c r="AC6" t="n">
-        <v>509.3078536903405</v>
+        <v>552.9863104582042</v>
       </c>
       <c r="AD6" t="n">
-        <v>411508.4245938846</v>
+        <v>446799.5609920362</v>
       </c>
       <c r="AE6" t="n">
-        <v>563043.9809997686</v>
+        <v>611330.8707547747</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.691877975722809e-06</v>
+        <v>5.131134865712475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.839583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>509307.8536903405</v>
+        <v>552986.3104582042</v>
       </c>
     </row>
     <row r="7">
@@ -4877,28 +4877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.2203603011587</v>
+        <v>447.5114966993103</v>
       </c>
       <c r="AB7" t="n">
-        <v>564.0180828428478</v>
+        <v>612.3049725978539</v>
       </c>
       <c r="AC7" t="n">
-        <v>510.1889886206767</v>
+        <v>553.8674453885403</v>
       </c>
       <c r="AD7" t="n">
-        <v>412220.3603011587</v>
+        <v>447511.4966993103</v>
       </c>
       <c r="AE7" t="n">
-        <v>564018.0828428478</v>
+        <v>612304.9725978539</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.696254522299921e-06</v>
+        <v>5.139477238931383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.830208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>510188.9886206767</v>
+        <v>553867.4453885403</v>
       </c>
     </row>
   </sheetData>
@@ -5174,28 +5174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.0614883248155</v>
+        <v>512.7446660889868</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.527110092175</v>
+        <v>701.5598728411319</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.0143473044576</v>
+        <v>634.6039832226392</v>
       </c>
       <c r="AD2" t="n">
-        <v>471061.4883248155</v>
+        <v>512744.6660889869</v>
       </c>
       <c r="AE2" t="n">
-        <v>644527.110092175</v>
+        <v>701559.8728411319</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397168313372465e-06</v>
+        <v>5.105341161501804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>583014.3473044576</v>
+        <v>634603.9832226392</v>
       </c>
     </row>
     <row r="3">
@@ -5280,28 +5280,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.9797211102705</v>
+        <v>378.2847972378227</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.7529620880078</v>
+        <v>517.5859483282113</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.4432057062947</v>
+        <v>468.1882718562071</v>
       </c>
       <c r="AD3" t="n">
-        <v>346979.7211102705</v>
+        <v>378284.7972378227</v>
       </c>
       <c r="AE3" t="n">
-        <v>474752.9620880078</v>
+        <v>517585.9483282113</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784318994963142e-06</v>
+        <v>5.929870794820571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>429443.2057062947</v>
+        <v>468188.2718562071</v>
       </c>
     </row>
     <row r="4">
@@ -5386,28 +5386,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.2526104518668</v>
+        <v>380.5576865794189</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.8628295579807</v>
+        <v>520.6958157981843</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.2562717896598</v>
+        <v>471.0013379395722</v>
       </c>
       <c r="AD4" t="n">
-        <v>349252.6104518668</v>
+        <v>380557.686579419</v>
       </c>
       <c r="AE4" t="n">
-        <v>477862.8295579807</v>
+        <v>520695.8157981843</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.784655794164178e-06</v>
+        <v>5.930588088977437e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.298958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>432256.2717896597</v>
+        <v>471001.3379395722</v>
       </c>
     </row>
     <row r="5">
@@ -5492,28 +5492,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.9369310664252</v>
+        <v>382.2420071939774</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.1673913298007</v>
+        <v>523.0003775700043</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.3408894204501</v>
+        <v>473.0859555703624</v>
       </c>
       <c r="AD5" t="n">
-        <v>350936.9310664252</v>
+        <v>382242.0071939774</v>
       </c>
       <c r="AE5" t="n">
-        <v>480167.3913298007</v>
+        <v>523000.3775700043</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.788192185775054e-06</v>
+        <v>5.938119677624543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.291666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>434340.8894204501</v>
+        <v>473085.9555703624</v>
       </c>
     </row>
   </sheetData>
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>721.8652118334877</v>
+        <v>765.8377368728607</v>
       </c>
       <c r="AB2" t="n">
-        <v>987.6878292761152</v>
+        <v>1047.852977965877</v>
       </c>
       <c r="AC2" t="n">
-        <v>893.4242890785769</v>
+        <v>947.8473604197042</v>
       </c>
       <c r="AD2" t="n">
-        <v>721865.2118334877</v>
+        <v>765837.7368728607</v>
       </c>
       <c r="AE2" t="n">
-        <v>987687.8292761152</v>
+        <v>1047852.977965877</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967706595720611e-06</v>
+        <v>3.995124687785008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.528125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>893424.2890785768</v>
+        <v>947847.3604197041</v>
       </c>
     </row>
     <row r="3">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.3024328821331</v>
+        <v>439.1325696747136</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.9209134676055</v>
+        <v>600.840554990629</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.8646017261589</v>
+        <v>543.4971757073379</v>
       </c>
       <c r="AD3" t="n">
-        <v>406302.4328821331</v>
+        <v>439132.5696747136</v>
       </c>
       <c r="AE3" t="n">
-        <v>555920.9134676055</v>
+        <v>600840.554990629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66560286006167e-06</v>
+        <v>5.412095389232909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.295833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>502864.6017261589</v>
+        <v>543497.1757073379</v>
       </c>
     </row>
     <row r="4">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.5153889216289</v>
+        <v>404.3455257142094</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.3237452247776</v>
+        <v>553.2433867478011</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.8100404173813</v>
+        <v>500.4426143985602</v>
       </c>
       <c r="AD4" t="n">
-        <v>371515.3889216289</v>
+        <v>404345.5257142094</v>
       </c>
       <c r="AE4" t="n">
-        <v>508323.7452247776</v>
+        <v>553243.3867478011</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.777569135157938e-06</v>
+        <v>5.639425637964739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>459810.0404173813</v>
+        <v>500442.6143985602</v>
       </c>
     </row>
     <row r="5">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.1781309228016</v>
+        <v>406.008267715382</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.5987821857819</v>
+        <v>555.5184237088054</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.8679510438618</v>
+        <v>502.5005250250407</v>
       </c>
       <c r="AD5" t="n">
-        <v>373178.1309228016</v>
+        <v>406008.267715382</v>
       </c>
       <c r="AE5" t="n">
-        <v>510598.7821857819</v>
+        <v>555518.4237088053</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.777891340266129e-06</v>
+        <v>5.640079825730874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.040624999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>461867.9510438618</v>
+        <v>502500.5250250407</v>
       </c>
     </row>
     <row r="6">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.4304358813243</v>
+        <v>407.2605726739048</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.3122410778283</v>
+        <v>557.2318826008518</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.417879824106</v>
+        <v>504.0504538052849</v>
       </c>
       <c r="AD6" t="n">
-        <v>374430.4358813243</v>
+        <v>407260.5726739048</v>
       </c>
       <c r="AE6" t="n">
-        <v>512312.2410778283</v>
+        <v>557231.8826008518</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.781757801564417e-06</v>
+        <v>5.647930078924491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.032291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>463417.879824106</v>
+        <v>504050.4538052849</v>
       </c>
     </row>
   </sheetData>
@@ -6510,28 +6510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.1247412929237</v>
+        <v>375.2253536263261</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.5324556971161</v>
+        <v>513.3998826058356</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.7707616797261</v>
+        <v>464.4017183711946</v>
       </c>
       <c r="AD2" t="n">
-        <v>335124.7412929237</v>
+        <v>375225.3536263261</v>
       </c>
       <c r="AE2" t="n">
-        <v>458532.4556971161</v>
+        <v>513399.8826058356</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71982565269673e-06</v>
+        <v>6.056520481218041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.698958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>414770.7616797261</v>
+        <v>464401.7183711947</v>
       </c>
     </row>
     <row r="3">
@@ -6616,28 +6616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.1193467713819</v>
+        <v>373.2199591047843</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.7885864409805</v>
+        <v>510.6560133496998</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.2887634543513</v>
+        <v>461.9197201458198</v>
       </c>
       <c r="AD3" t="n">
-        <v>333119.3467713819</v>
+        <v>373219.9591047843</v>
       </c>
       <c r="AE3" t="n">
-        <v>455788.5864409804</v>
+        <v>510656.0133496998</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.740813311260398e-06</v>
+        <v>6.103255897445046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.646875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>412288.7634543513</v>
+        <v>461919.7201458198</v>
       </c>
     </row>
     <row r="4">
@@ -6722,28 +6722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.217662297206</v>
+        <v>375.3182746306082</v>
       </c>
       <c r="AB4" t="n">
-        <v>458.6595943145605</v>
+        <v>513.5270212232799</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.8857663659617</v>
+        <v>464.5167230574303</v>
       </c>
       <c r="AD4" t="n">
-        <v>335217.662297206</v>
+        <v>375318.2746306083</v>
       </c>
       <c r="AE4" t="n">
-        <v>458659.5943145605</v>
+        <v>513527.0212232799</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744136357199646e-06</v>
+        <v>6.11065567168099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.639583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>414885.7663659618</v>
+        <v>464516.7230574303</v>
       </c>
     </row>
   </sheetData>
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1701.102610292349</v>
+        <v>1772.28074091188</v>
       </c>
       <c r="AB2" t="n">
-        <v>2327.523638752582</v>
+        <v>2424.912697223726</v>
       </c>
       <c r="AC2" t="n">
-        <v>2105.388049369979</v>
+        <v>2193.482432787038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1701102.610292349</v>
+        <v>1772280.74091188</v>
       </c>
       <c r="AE2" t="n">
-        <v>2327523.638752582</v>
+        <v>2424912.697223726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.261536381660734e-06</v>
+        <v>2.385267157090018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2105388.049369979</v>
+        <v>2193482.432787038</v>
       </c>
     </row>
     <row r="3">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>698.9627073226313</v>
+        <v>746.3010364324066</v>
       </c>
       <c r="AB3" t="n">
-        <v>956.3516122171723</v>
+        <v>1021.122002524854</v>
       </c>
       <c r="AC3" t="n">
-        <v>865.0787565950825</v>
+        <v>923.6675517576126</v>
       </c>
       <c r="AD3" t="n">
-        <v>698962.7073226314</v>
+        <v>746301.0364324066</v>
       </c>
       <c r="AE3" t="n">
-        <v>956351.6122171723</v>
+        <v>1021122.002524854</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105801097069726e-06</v>
+        <v>3.981572207685531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.397916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>865078.7565950825</v>
+        <v>923667.5517576126</v>
       </c>
     </row>
     <row r="4">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>544.5550369978258</v>
+        <v>580.1014766345809</v>
       </c>
       <c r="AB4" t="n">
-        <v>745.0842256931246</v>
+        <v>793.7204326023716</v>
       </c>
       <c r="AC4" t="n">
-        <v>673.9744329252505</v>
+        <v>717.9688685084242</v>
       </c>
       <c r="AD4" t="n">
-        <v>544555.0369978258</v>
+        <v>580101.4766345809</v>
       </c>
       <c r="AE4" t="n">
-        <v>745084.2256931246</v>
+        <v>793720.4326023716</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412847237146724e-06</v>
+        <v>4.562123893933996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.457291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>673974.4329252505</v>
+        <v>717968.8685084241</v>
       </c>
     </row>
     <row r="5">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.3671226498006</v>
+        <v>512.9135622865556</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.1547571605727</v>
+        <v>701.7909640698196</v>
       </c>
       <c r="AC5" t="n">
-        <v>590.818583845626</v>
+        <v>634.8130194287996</v>
       </c>
       <c r="AD5" t="n">
-        <v>477367.1226498006</v>
+        <v>512913.5622865555</v>
       </c>
       <c r="AE5" t="n">
-        <v>653154.7571605727</v>
+        <v>701790.9640698195</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574820432326164e-06</v>
+        <v>4.868376926670035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.05</v>
       </c>
       <c r="AH5" t="n">
-        <v>590818.583845626</v>
+        <v>634813.0194287996</v>
       </c>
     </row>
     <row r="6">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>423.1030843411672</v>
+        <v>458.7347753239428</v>
       </c>
       <c r="AB6" t="n">
-        <v>578.9083059862877</v>
+        <v>627.6611575481838</v>
       </c>
       <c r="AC6" t="n">
-        <v>523.6581097658661</v>
+        <v>567.7580575997519</v>
       </c>
       <c r="AD6" t="n">
-        <v>423103.0843411672</v>
+        <v>458734.7753239428</v>
       </c>
       <c r="AE6" t="n">
-        <v>578908.3059862877</v>
+        <v>627661.1575481838</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668295267956035e-06</v>
+        <v>5.045115749809485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.838541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>523658.1097658661</v>
+        <v>567758.0575997519</v>
       </c>
     </row>
     <row r="7">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>420.2368418240833</v>
+        <v>455.8685328068589</v>
       </c>
       <c r="AB7" t="n">
-        <v>574.9865865247178</v>
+        <v>623.7394380866142</v>
       </c>
       <c r="AC7" t="n">
-        <v>520.1106737055408</v>
+        <v>564.2106215394266</v>
       </c>
       <c r="AD7" t="n">
-        <v>420236.8418240833</v>
+        <v>455868.5328068589</v>
       </c>
       <c r="AE7" t="n">
-        <v>574986.5865247179</v>
+        <v>623739.4380866142</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.678914009283588e-06</v>
+        <v>5.065193280118126e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.815625</v>
       </c>
       <c r="AH7" t="n">
-        <v>520110.6737055407</v>
+        <v>564210.6215394266</v>
       </c>
     </row>
   </sheetData>
@@ -7846,28 +7846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.2340841462616</v>
+        <v>364.347099230885</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.9996222440554</v>
+        <v>498.5157750272799</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.5294828579744</v>
+        <v>450.9381291299601</v>
       </c>
       <c r="AD2" t="n">
-        <v>325234.0841462616</v>
+        <v>364347.099230885</v>
       </c>
       <c r="AE2" t="n">
-        <v>444999.6222440554</v>
+        <v>498515.7750272799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676028152400293e-06</v>
+        <v>6.13497315939805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>402529.4828579744</v>
+        <v>450938.1291299601</v>
       </c>
     </row>
     <row r="3">
@@ -7952,28 +7952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.2261351951301</v>
+        <v>366.3391502797535</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.7252343722071</v>
+        <v>501.2413871554315</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.994966390036</v>
+        <v>453.4036126620217</v>
       </c>
       <c r="AD3" t="n">
-        <v>327226.1351951301</v>
+        <v>366339.1502797535</v>
       </c>
       <c r="AE3" t="n">
-        <v>447725.2343722071</v>
+        <v>501241.3871554316</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.682113695653695e-06</v>
+        <v>6.148924673505435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.951041666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>404994.966390036</v>
+        <v>453403.6126620217</v>
       </c>
     </row>
   </sheetData>
@@ -8249,28 +8249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1044.753236915368</v>
+        <v>1112.954299206166</v>
       </c>
       <c r="AB2" t="n">
-        <v>1429.477470007462</v>
+        <v>1522.793172252248</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.050146554179</v>
+        <v>1377.459929146134</v>
       </c>
       <c r="AD2" t="n">
-        <v>1044753.236915368</v>
+        <v>1112954.299206166</v>
       </c>
       <c r="AE2" t="n">
-        <v>1429477.470007461</v>
+        <v>1522793.172252249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.629686766777775e-06</v>
+        <v>3.194163540720586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.938541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293050.146554179</v>
+        <v>1377459.929146134</v>
       </c>
     </row>
     <row r="3">
@@ -8355,28 +8355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.7592155592869</v>
+        <v>569.2550373713432</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.6304653540237</v>
+        <v>778.8798558912813</v>
       </c>
       <c r="AC3" t="n">
-        <v>648.2362595378103</v>
+        <v>704.54465560976</v>
       </c>
       <c r="AD3" t="n">
-        <v>523759.2155592869</v>
+        <v>569255.0373713432</v>
       </c>
       <c r="AE3" t="n">
-        <v>716630.4653540237</v>
+        <v>778879.8558912813</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.396717090269308e-06</v>
+        <v>4.697532374455406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.758333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>648236.2595378102</v>
+        <v>704544.65560976</v>
       </c>
     </row>
     <row r="4">
@@ -8461,28 +8461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.0198559815037</v>
+        <v>455.1204766354541</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.057941039047</v>
+        <v>622.7159146309891</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.0797796486778</v>
+        <v>563.2847817258821</v>
       </c>
       <c r="AD4" t="n">
-        <v>421019.8559815037</v>
+        <v>455120.4766354541</v>
       </c>
       <c r="AE4" t="n">
-        <v>576057.941039047</v>
+        <v>622715.9146309891</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.674888030615214e-06</v>
+        <v>5.242743573229295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.055208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>521079.7796486778</v>
+        <v>563284.7817258821</v>
       </c>
     </row>
     <row r="5">
@@ -8567,28 +8567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.3906569538064</v>
+        <v>419.5765289537774</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.3084990800261</v>
+        <v>574.0831173246174</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.9829160099543</v>
+        <v>519.2934303378709</v>
       </c>
       <c r="AD5" t="n">
-        <v>385390.6569538064</v>
+        <v>419576.5289537774</v>
       </c>
       <c r="AE5" t="n">
-        <v>527308.4990800261</v>
+        <v>574083.1173246175</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.740038183776161e-06</v>
+        <v>5.370436973053923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>476982.9160099543</v>
+        <v>519293.4303378708</v>
       </c>
     </row>
     <row r="6">
@@ -8673,28 +8673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.3194466651519</v>
+        <v>421.5053186651228</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.9475542552856</v>
+        <v>576.7221724998767</v>
       </c>
       <c r="AC6" t="n">
-        <v>479.3701034632241</v>
+        <v>521.6806177911407</v>
       </c>
       <c r="AD6" t="n">
-        <v>387319.4466651519</v>
+        <v>421505.3186651228</v>
       </c>
       <c r="AE6" t="n">
-        <v>529947.5542552855</v>
+        <v>576722.1724998767</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.740193673401844e-06</v>
+        <v>5.370741730571404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.910416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>479370.1034632241</v>
+        <v>521680.6177911407</v>
       </c>
     </row>
   </sheetData>
@@ -8970,28 +8970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1338.319384470396</v>
+        <v>1396.54886030897</v>
       </c>
       <c r="AB2" t="n">
-        <v>1831.147624316629</v>
+        <v>1910.819762062137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1656.385465083682</v>
+        <v>1728.453805823305</v>
       </c>
       <c r="AD2" t="n">
-        <v>1338319.384470396</v>
+        <v>1396548.86030897</v>
       </c>
       <c r="AE2" t="n">
-        <v>1831147.624316629</v>
+        <v>1910819.762062137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437259098854194e-06</v>
+        <v>2.7634224979041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1656385.465083682</v>
+        <v>1728453.805823305</v>
       </c>
     </row>
     <row r="3">
@@ -9076,28 +9076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>614.117682869743</v>
+        <v>649.0554041763078</v>
       </c>
       <c r="AB3" t="n">
-        <v>840.2629066624262</v>
+        <v>888.0662382975495</v>
       </c>
       <c r="AC3" t="n">
-        <v>760.0693941669598</v>
+        <v>803.3104429232244</v>
       </c>
       <c r="AD3" t="n">
-        <v>614117.682869743</v>
+        <v>649055.4041763077</v>
       </c>
       <c r="AE3" t="n">
-        <v>840262.9066624262</v>
+        <v>888066.2382975495</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246231519345583e-06</v>
+        <v>4.318836263419339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.064583333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>760069.3941669598</v>
+        <v>803310.4429232244</v>
       </c>
     </row>
     <row r="4">
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.3072177918853</v>
+        <v>518.1595982438783</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.2822573924753</v>
+        <v>708.968821905401</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.1704068624141</v>
+        <v>641.3058325867399</v>
       </c>
       <c r="AD4" t="n">
-        <v>483307.2177918853</v>
+        <v>518159.5982438784</v>
       </c>
       <c r="AE4" t="n">
-        <v>661282.2573924754</v>
+        <v>708968.821905401</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.536760785989101e-06</v>
+        <v>4.877437779584605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.256250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>598170.4068624141</v>
+        <v>641305.8325867399</v>
       </c>
     </row>
     <row r="5">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>410.8509407029747</v>
+        <v>445.7885725009883</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.1443825340835</v>
+        <v>609.9475916996587</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.4941116396261</v>
+        <v>551.735049614664</v>
       </c>
       <c r="AD5" t="n">
-        <v>410850.9407029747</v>
+        <v>445788.5725009883</v>
       </c>
       <c r="AE5" t="n">
-        <v>562144.3825340836</v>
+        <v>609947.5916996587</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.689871385347641e-06</v>
+        <v>5.171824000741444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>508494.111639626</v>
+        <v>551735.0496146641</v>
       </c>
     </row>
     <row r="6">
@@ -9394,28 +9394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.3648760891388</v>
+        <v>438.3025078871525</v>
       </c>
       <c r="AB6" t="n">
-        <v>551.9016186675713</v>
+        <v>599.7048278331463</v>
       </c>
       <c r="AC6" t="n">
-        <v>499.2289027807243</v>
+        <v>542.4698407557622</v>
       </c>
       <c r="AD6" t="n">
-        <v>403364.8760891388</v>
+        <v>438302.5078871525</v>
       </c>
       <c r="AE6" t="n">
-        <v>551901.6186675712</v>
+        <v>599704.8278331463</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.707696201392367e-06</v>
+        <v>5.206095829473137e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.861458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>499228.9027807243</v>
+        <v>542469.8407557622</v>
       </c>
     </row>
     <row r="7">
@@ -9500,28 +9500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>404.2748367121694</v>
+        <v>439.212468510183</v>
       </c>
       <c r="AB7" t="n">
-        <v>553.146666936631</v>
+        <v>600.9498761022061</v>
       </c>
       <c r="AC7" t="n">
-        <v>500.3551253904212</v>
+        <v>543.5960633654594</v>
       </c>
       <c r="AD7" t="n">
-        <v>404274.8367121693</v>
+        <v>439212.468510183</v>
       </c>
       <c r="AE7" t="n">
-        <v>553146.6669366311</v>
+        <v>600949.8761022061</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.711961969334694e-06</v>
+        <v>5.214297634639695e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.852083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>500355.1253904212</v>
+        <v>543596.0633654593</v>
       </c>
     </row>
   </sheetData>
@@ -9797,28 +9797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2190.892213766751</v>
+        <v>2287.464375572564</v>
       </c>
       <c r="AB2" t="n">
-        <v>2997.675382218719</v>
+        <v>3129.80967446453</v>
       </c>
       <c r="AC2" t="n">
-        <v>2711.581451003474</v>
+        <v>2831.105031848984</v>
       </c>
       <c r="AD2" t="n">
-        <v>2190892.21376675</v>
+        <v>2287464.375572564</v>
       </c>
       <c r="AE2" t="n">
-        <v>2997675.382218719</v>
+        <v>3129809.67446453</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097291822340604e-06</v>
+        <v>2.044171439359477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2711581.451003474</v>
+        <v>2831105.031848984</v>
       </c>
     </row>
     <row r="3">
@@ -9903,28 +9903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.7587883591027</v>
+        <v>837.1302101165811</v>
       </c>
       <c r="AB3" t="n">
-        <v>1079.214571814777</v>
+        <v>1145.398485059877</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.215847767939</v>
+        <v>1036.083261222632</v>
       </c>
       <c r="AD3" t="n">
-        <v>788758.7883591027</v>
+        <v>837130.2101165811</v>
       </c>
       <c r="AE3" t="n">
-        <v>1079214.571814777</v>
+        <v>1145398.485059877</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.97930151818608e-06</v>
+        <v>3.687288605438027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.738541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>976215.847767939</v>
+        <v>1036083.261222632</v>
       </c>
     </row>
     <row r="4">
@@ -10009,28 +10009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.2704218130588</v>
+        <v>655.5565027159653</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.8941820048327</v>
+        <v>896.9613281277348</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.5948074415994</v>
+        <v>811.3565978643536</v>
       </c>
       <c r="AD4" t="n">
-        <v>607270.4218130588</v>
+        <v>655556.5027159653</v>
       </c>
       <c r="AE4" t="n">
-        <v>830894.1820048327</v>
+        <v>896961.3281277347</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.2966367838804e-06</v>
+        <v>4.27846013668136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.669791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>751594.8074415994</v>
+        <v>811356.5978643536</v>
       </c>
     </row>
     <row r="5">
@@ -10115,28 +10115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>530.818202926</v>
+        <v>567.0115178980881</v>
       </c>
       <c r="AB5" t="n">
-        <v>726.2888832897045</v>
+        <v>775.8101735708799</v>
       </c>
       <c r="AC5" t="n">
-        <v>656.9728916213842</v>
+        <v>701.7679394616916</v>
       </c>
       <c r="AD5" t="n">
-        <v>530818.202926</v>
+        <v>567011.5178980881</v>
       </c>
       <c r="AE5" t="n">
-        <v>726288.8832897044</v>
+        <v>775810.1735708799</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.471185885075562e-06</v>
+        <v>4.603631873282767e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.198958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>656972.8916213842</v>
+        <v>701767.9394616917</v>
       </c>
     </row>
     <row r="6">
@@ -10221,28 +10221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.185757691018</v>
+        <v>520.3864977393529</v>
       </c>
       <c r="AB6" t="n">
-        <v>646.0653850382769</v>
+        <v>712.0157640389813</v>
       </c>
       <c r="AC6" t="n">
-        <v>584.4058114486861</v>
+        <v>644.0619788395013</v>
       </c>
       <c r="AD6" t="n">
-        <v>472185.757691018</v>
+        <v>520386.4977393529</v>
       </c>
       <c r="AE6" t="n">
-        <v>646065.3850382769</v>
+        <v>712015.7640389813</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.573386074907607e-06</v>
+        <v>4.794023075420911e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.952083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>584405.8114486861</v>
+        <v>644061.9788395013</v>
       </c>
     </row>
     <row r="7">
@@ -10327,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>439.3575416119087</v>
+        <v>475.6361079300175</v>
       </c>
       <c r="AB7" t="n">
-        <v>601.1483715201609</v>
+        <v>650.7863064539856</v>
       </c>
       <c r="AC7" t="n">
-        <v>543.7756146593146</v>
+        <v>588.6761747503342</v>
       </c>
       <c r="AD7" t="n">
-        <v>439357.5416119088</v>
+        <v>475636.1079300175</v>
       </c>
       <c r="AE7" t="n">
-        <v>601148.3715201609</v>
+        <v>650786.3064539856</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638382454628131e-06</v>
+        <v>4.915106401097257e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.806249999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>543775.6146593145</v>
+        <v>588676.1747503342</v>
       </c>
     </row>
     <row r="8">
@@ -10433,28 +10433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>436.6920284007217</v>
+        <v>472.9705947188305</v>
       </c>
       <c r="AB8" t="n">
-        <v>597.5012987504713</v>
+        <v>647.1392336842961</v>
       </c>
       <c r="AC8" t="n">
-        <v>540.4766133960653</v>
+        <v>585.3771734870851</v>
       </c>
       <c r="AD8" t="n">
-        <v>436692.0284007217</v>
+        <v>472970.5947188304</v>
       </c>
       <c r="AE8" t="n">
-        <v>597501.2987504713</v>
+        <v>647139.233684296</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.646470239434983e-06</v>
+        <v>4.930173330762865e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>540476.6133960653</v>
+        <v>585377.173487085</v>
       </c>
     </row>
     <row r="9">
@@ -10539,28 +10539,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>438.002310431433</v>
+        <v>474.2808767495416</v>
       </c>
       <c r="AB9" t="n">
-        <v>599.2940844304538</v>
+        <v>648.9320193642785</v>
       </c>
       <c r="AC9" t="n">
-        <v>542.0982981269409</v>
+        <v>586.9988582179604</v>
       </c>
       <c r="AD9" t="n">
-        <v>438002.310431433</v>
+        <v>474280.8767495416</v>
       </c>
       <c r="AE9" t="n">
-        <v>599294.0844304538</v>
+        <v>648932.0193642785</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646617290067835e-06</v>
+        <v>4.930447274938604e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>542098.2981269408</v>
+        <v>586998.8582179605</v>
       </c>
     </row>
   </sheetData>
@@ -10836,28 +10836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.942433652529</v>
+        <v>871.4595102435026</v>
       </c>
       <c r="AB2" t="n">
-        <v>1116.408434563034</v>
+        <v>1192.369347995364</v>
       </c>
       <c r="AC2" t="n">
-        <v>1009.859980457416</v>
+        <v>1078.571290923577</v>
       </c>
       <c r="AD2" t="n">
-        <v>815942.4336525289</v>
+        <v>871459.5102435026</v>
       </c>
       <c r="AE2" t="n">
-        <v>1116408.434563034</v>
+        <v>1192369.347995365</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846832750333552e-06</v>
+        <v>3.701971363105159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.972916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1009859.980457416</v>
+        <v>1078571.290923577</v>
       </c>
     </row>
     <row r="3">
@@ -10942,28 +10942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.3396624285155</v>
+        <v>479.6158615498221</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.7016172508728</v>
+        <v>656.2315809309405</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.4171120255519</v>
+        <v>593.6017598736993</v>
       </c>
       <c r="AD3" t="n">
-        <v>446339.6624285154</v>
+        <v>479615.8615498221</v>
       </c>
       <c r="AE3" t="n">
-        <v>610701.6172508728</v>
+        <v>656231.5809309405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567175475246148e-06</v>
+        <v>5.145896449860277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.455208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>552417.1120255518</v>
+        <v>593601.7598736993</v>
       </c>
     </row>
     <row r="4">
@@ -11048,28 +11048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.4059039655681</v>
+        <v>412.7171562128611</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.0692107271007</v>
+        <v>564.6978209263278</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.9615527208859</v>
+        <v>510.8038534554877</v>
       </c>
       <c r="AD4" t="n">
-        <v>368405.9039655682</v>
+        <v>412717.1562128611</v>
       </c>
       <c r="AE4" t="n">
-        <v>504069.2107271007</v>
+        <v>564697.8209263278</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76555607992062e-06</v>
+        <v>5.543549847206485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.991666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>455961.552720886</v>
+        <v>510803.8534554878</v>
       </c>
     </row>
     <row r="5">
@@ -11154,28 +11154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.3359685695965</v>
+        <v>414.6472208168894</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.7100102667731</v>
+        <v>567.3386204660003</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.3503180588775</v>
+        <v>513.1926187934794</v>
       </c>
       <c r="AD5" t="n">
-        <v>370335.9685695965</v>
+        <v>414647.2208168894</v>
       </c>
       <c r="AE5" t="n">
-        <v>506710.0102667731</v>
+        <v>567338.6204660003</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765874252502295e-06</v>
+        <v>5.544187623304875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.991666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>458350.3180588775</v>
+        <v>513192.6187934793</v>
       </c>
     </row>
     <row r="6">
@@ -11260,28 +11260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>371.5299212298239</v>
+        <v>415.8411734771169</v>
       </c>
       <c r="AB6" t="n">
-        <v>508.34362896997</v>
+        <v>568.9722391691972</v>
       </c>
       <c r="AC6" t="n">
-        <v>459.8280264858396</v>
+        <v>514.6703272204414</v>
       </c>
       <c r="AD6" t="n">
-        <v>371529.9212298239</v>
+        <v>415841.1734771169</v>
       </c>
       <c r="AE6" t="n">
-        <v>508343.62896997</v>
+        <v>568972.2391691973</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.769851409773235e-06</v>
+        <v>5.552159824534751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>459828.0264858396</v>
+        <v>514670.3272204415</v>
       </c>
     </row>
   </sheetData>
@@ -11557,28 +11557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.3408817775252</v>
+        <v>587.9218778050133</v>
       </c>
       <c r="AB2" t="n">
-        <v>746.1594531897341</v>
+        <v>804.4206504955073</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.9470422186749</v>
+        <v>727.6478726236893</v>
       </c>
       <c r="AD2" t="n">
-        <v>545340.8817775252</v>
+        <v>587921.8778050133</v>
       </c>
       <c r="AE2" t="n">
-        <v>746159.4531897341</v>
+        <v>804420.6504955073</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.240469233157115e-06</v>
+        <v>4.687201750043486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.705208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>674947.0422186749</v>
+        <v>727647.8726236892</v>
       </c>
     </row>
     <row r="3">
@@ -11663,28 +11663,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.7333396520125</v>
+        <v>386.5838353266082</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.3618050423275</v>
+        <v>528.9410583690083</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.0395555786588</v>
+        <v>478.4596661317073</v>
       </c>
       <c r="AD3" t="n">
-        <v>354733.3396520126</v>
+        <v>386583.8353266082</v>
       </c>
       <c r="AE3" t="n">
-        <v>485361.8050423276</v>
+        <v>528941.0583690082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.785672175249342e-06</v>
+        <v>5.827800400756731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.196874999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>439039.5555786588</v>
+        <v>478459.6661317073</v>
       </c>
     </row>
     <row r="4">
@@ -11769,28 +11769,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.0763422225193</v>
+        <v>387.926837897115</v>
       </c>
       <c r="AB4" t="n">
-        <v>487.1993604083867</v>
+        <v>530.7786137350674</v>
       </c>
       <c r="AC4" t="n">
-        <v>440.7017372396065</v>
+        <v>480.1218477926549</v>
       </c>
       <c r="AD4" t="n">
-        <v>356076.3422225193</v>
+        <v>387926.837897115</v>
       </c>
       <c r="AE4" t="n">
-        <v>487199.3604083867</v>
+        <v>530778.6137350674</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789649339568555e-06</v>
+        <v>5.836120877236098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>440701.7372396065</v>
+        <v>480121.8477926549</v>
       </c>
     </row>
     <row r="5">
@@ -11875,28 +11875,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.4063545481</v>
+        <v>389.2568502226956</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.0191419482489</v>
+        <v>532.5983952749294</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.3478413833836</v>
+        <v>481.767951936432</v>
       </c>
       <c r="AD5" t="n">
-        <v>357406.3545481</v>
+        <v>389256.8502226956</v>
       </c>
       <c r="AE5" t="n">
-        <v>489019.1419482489</v>
+        <v>532598.3952749295</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793460788707802e-06</v>
+        <v>5.844094667195491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>442347.8413833836</v>
+        <v>481767.951936432</v>
       </c>
     </row>
   </sheetData>
@@ -21329,28 +21329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.0437797243869</v>
+        <v>429.0199796813911</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.9386187022502</v>
+        <v>587.0040632257815</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.2665821103381</v>
+        <v>530.9812192968892</v>
       </c>
       <c r="AD2" t="n">
-        <v>388043.7797243869</v>
+        <v>429019.9796813912</v>
       </c>
       <c r="AE2" t="n">
-        <v>530938.6187022502</v>
+        <v>587004.0632257814</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.579770671391952e-06</v>
+        <v>5.608049358912805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>480266.5821103381</v>
+        <v>530981.2192968893</v>
       </c>
     </row>
     <row r="3">
@@ -21435,28 +21435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.9966354066587</v>
+        <v>369.7075396693201</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.830152039441</v>
+        <v>505.8501661210885</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.562853318503</v>
+        <v>457.5725362316582</v>
       </c>
       <c r="AD3" t="n">
-        <v>338996.6354066587</v>
+        <v>369707.5396693201</v>
       </c>
       <c r="AE3" t="n">
-        <v>463830.152039441</v>
+        <v>505850.1661210886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773309184781646e-06</v>
+        <v>6.028774172934505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.438541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>419562.853318503</v>
+        <v>457572.5362316582</v>
       </c>
     </row>
     <row r="4">
@@ -21541,28 +21541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.4778110429569</v>
+        <v>372.1887153056184</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.225006006768</v>
+        <v>509.2450200884155</v>
       </c>
       <c r="AC4" t="n">
-        <v>422.6337071878958</v>
+        <v>460.643390101051</v>
       </c>
       <c r="AD4" t="n">
-        <v>341477.8110429569</v>
+        <v>372188.7153056184</v>
       </c>
       <c r="AE4" t="n">
-        <v>467225.006006768</v>
+        <v>509245.0200884155</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773480609505641e-06</v>
+        <v>6.029146825559856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.438541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>422633.7071878958</v>
+        <v>460643.390101051</v>
       </c>
     </row>
   </sheetData>
@@ -21838,28 +21838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.8954466527073</v>
+        <v>369.9449560168696</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.1139923039473</v>
+        <v>506.1750096418759</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.773990231449</v>
+        <v>457.8663771427423</v>
       </c>
       <c r="AD2" t="n">
-        <v>331895.4466527073</v>
+        <v>369944.9560168696</v>
       </c>
       <c r="AE2" t="n">
-        <v>454113.9923039473</v>
+        <v>506175.0096418759</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552691442695583e-06</v>
+        <v>6.07164542600604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>410773.990231449</v>
+        <v>457866.3771427423</v>
       </c>
     </row>
     <row r="3">
@@ -21944,28 +21944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.3550125983076</v>
+        <v>373.2339297618776</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.8475230559954</v>
+        <v>510.6751286190769</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.0557594520737</v>
+        <v>461.9370110807159</v>
       </c>
       <c r="AD3" t="n">
-        <v>335355.0125983076</v>
+        <v>373233.9297618776</v>
       </c>
       <c r="AE3" t="n">
-        <v>458847.5230559954</v>
+        <v>510675.1286190769</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555451308029332e-06</v>
+        <v>6.078209840118055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>415055.7594520737</v>
+        <v>461937.0110807159</v>
       </c>
     </row>
   </sheetData>
@@ -22241,28 +22241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1184.001302137727</v>
+        <v>1241.532332297475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1620.002816035767</v>
+        <v>1698.719309590254</v>
       </c>
       <c r="AC2" t="n">
-        <v>1465.392020961545</v>
+        <v>1536.595922850484</v>
       </c>
       <c r="AD2" t="n">
-        <v>1184001.302137727</v>
+        <v>1241532.332297475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1620002.816035766</v>
+        <v>1698719.309590254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530542252853876e-06</v>
+        <v>2.970136922396607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.471875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1465392.020961545</v>
+        <v>1536595.922850484</v>
       </c>
     </row>
     <row r="3">
@@ -22347,28 +22347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.5724018738497</v>
+        <v>608.5800862238923</v>
       </c>
       <c r="AB3" t="n">
-        <v>769.7363791865397</v>
+        <v>832.6861226300514</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.2738194887689</v>
+        <v>753.2157277685518</v>
       </c>
       <c r="AD3" t="n">
-        <v>562572.4018738497</v>
+        <v>608580.0862238923</v>
       </c>
       <c r="AE3" t="n">
-        <v>769736.3791865397</v>
+        <v>832686.1226300513</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319586253319813e-06</v>
+        <v>4.501338504587197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.909375</v>
       </c>
       <c r="AH3" t="n">
-        <v>696273.8194887689</v>
+        <v>753215.7277685518</v>
       </c>
     </row>
     <row r="4">
@@ -22453,28 +22453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.9927812122037</v>
+        <v>487.4772987696439</v>
       </c>
       <c r="AB4" t="n">
-        <v>619.8047078856006</v>
+        <v>666.9879461572334</v>
       </c>
       <c r="AC4" t="n">
-        <v>560.6514164663693</v>
+        <v>603.3315526994481</v>
       </c>
       <c r="AD4" t="n">
-        <v>452992.7812122037</v>
+        <v>487477.2987696439</v>
       </c>
       <c r="AE4" t="n">
-        <v>619804.7078856006</v>
+        <v>666987.9461572334</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.601937216825077e-06</v>
+        <v>5.04926262769947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.160416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>560651.4164663693</v>
+        <v>603331.5526994482</v>
       </c>
     </row>
     <row r="5">
@@ -22559,28 +22559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.1985269818052</v>
+        <v>426.7682958852658</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.6233271943626</v>
+        <v>583.9232101186446</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.4087500025018</v>
+        <v>528.194398486293</v>
       </c>
       <c r="AD5" t="n">
-        <v>392198.5269818052</v>
+        <v>426768.2958852659</v>
       </c>
       <c r="AE5" t="n">
-        <v>536623.3271943625</v>
+        <v>583923.2101186446</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.728264269161764e-06</v>
+        <v>5.2944101509012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>485408.7500025018</v>
+        <v>528194.398486293</v>
       </c>
     </row>
     <row r="6">
@@ -22665,28 +22665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.5380660088841</v>
+        <v>428.1078349123448</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.4561435875031</v>
+        <v>585.756026511785</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.0666449714549</v>
+        <v>529.8522934552461</v>
       </c>
       <c r="AD6" t="n">
-        <v>393538.0660088841</v>
+        <v>428107.8349123448</v>
       </c>
       <c r="AE6" t="n">
-        <v>538456.1435875031</v>
+        <v>585756.026511785</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.728725878366405e-06</v>
+        <v>5.295305939658332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.873958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>487066.6449714549</v>
+        <v>529852.2934552461</v>
       </c>
     </row>
     <row r="7">
@@ -22771,28 +22771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.2079556280879</v>
+        <v>428.7777245315486</v>
       </c>
       <c r="AB7" t="n">
-        <v>539.3727161179419</v>
+        <v>586.6725990422239</v>
       </c>
       <c r="AC7" t="n">
-        <v>487.8957411060064</v>
+        <v>530.6813895897976</v>
       </c>
       <c r="AD7" t="n">
-        <v>394207.9556280879</v>
+        <v>428777.7245315486</v>
       </c>
       <c r="AE7" t="n">
-        <v>539372.7161179419</v>
+        <v>586672.5990422239</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.733034230943052e-06</v>
+        <v>5.303666634724895e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.864583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>487895.7411060064</v>
+        <v>530681.3895897976</v>
       </c>
     </row>
   </sheetData>
@@ -23068,28 +23068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1932.666617384788</v>
+        <v>2004.587691118086</v>
       </c>
       <c r="AB2" t="n">
-        <v>2644.359729139449</v>
+        <v>2742.765315155186</v>
       </c>
       <c r="AC2" t="n">
-        <v>2391.985747972568</v>
+        <v>2480.999642972071</v>
       </c>
       <c r="AD2" t="n">
-        <v>1932666.617384788</v>
+        <v>2004587.691118086</v>
       </c>
       <c r="AE2" t="n">
-        <v>2644359.729139449</v>
+        <v>2742765.315155186</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.17803512588254e-06</v>
+        <v>2.210455955982815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.11145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2391985.747972568</v>
+        <v>2480999.642972071</v>
       </c>
     </row>
     <row r="3">
@@ -23174,28 +23174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.7100499901761</v>
+        <v>791.6573728066739</v>
       </c>
       <c r="AB3" t="n">
-        <v>1017.57690056834</v>
+        <v>1083.180542932465</v>
       </c>
       <c r="AC3" t="n">
-        <v>920.4607893562461</v>
+        <v>979.8033121684301</v>
       </c>
       <c r="AD3" t="n">
-        <v>743710.0499901761</v>
+        <v>791657.372806674</v>
       </c>
       <c r="AE3" t="n">
-        <v>1017576.90056834</v>
+        <v>1083180.542932465</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040098841663672e-06</v>
+        <v>3.828025613387986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>920460.7893562461</v>
+        <v>979803.3121684301</v>
       </c>
     </row>
     <row r="4">
@@ -23280,28 +23280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.8129019999782</v>
+        <v>610.8587349669233</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.4843714718621</v>
+        <v>835.803870367154</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.4234068963349</v>
+        <v>756.0359220374116</v>
       </c>
       <c r="AD4" t="n">
-        <v>574812.9019999782</v>
+        <v>610858.7349669232</v>
       </c>
       <c r="AE4" t="n">
-        <v>786484.3714718621</v>
+        <v>835803.870367154</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.35532888290046e-06</v>
+        <v>4.419520813189052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.557291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>711423.4068963348</v>
+        <v>756035.9220374116</v>
       </c>
     </row>
     <row r="5">
@@ -23386,28 +23386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.5415900311389</v>
+        <v>540.4168307974917</v>
       </c>
       <c r="AB5" t="n">
-        <v>690.3360622846097</v>
+        <v>739.4221494050547</v>
       </c>
       <c r="AC5" t="n">
-        <v>624.4513573929145</v>
+        <v>668.85273725134</v>
       </c>
       <c r="AD5" t="n">
-        <v>504541.5900311389</v>
+        <v>540416.8307974917</v>
       </c>
       <c r="AE5" t="n">
-        <v>690336.0622846098</v>
+        <v>739422.1494050547</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521543782348456e-06</v>
+        <v>4.731405158897892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>624451.3573929145</v>
+        <v>668852.7372513401</v>
       </c>
     </row>
     <row r="6">
@@ -23492,28 +23492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.6675776539518</v>
+        <v>480.6280697663252</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.4137970951408</v>
+        <v>657.616528868235</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.3476382145071</v>
+        <v>594.854530323645</v>
       </c>
       <c r="AD6" t="n">
-        <v>444667.5776539518</v>
+        <v>480628.0697663252</v>
       </c>
       <c r="AE6" t="n">
-        <v>608413.7970951408</v>
+        <v>657616.5288682351</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.629190541491404e-06</v>
+        <v>4.933392701257052e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>550347.6382145071</v>
+        <v>594854.530323645</v>
       </c>
     </row>
     <row r="7">
@@ -23598,28 +23598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.6085783467523</v>
+        <v>464.5690704591257</v>
       </c>
       <c r="AB7" t="n">
-        <v>586.4411657699825</v>
+        <v>635.6438975430767</v>
       </c>
       <c r="AC7" t="n">
-        <v>530.4720439842403</v>
+        <v>574.9789360933781</v>
       </c>
       <c r="AD7" t="n">
-        <v>428608.5783467523</v>
+        <v>464569.0704591257</v>
       </c>
       <c r="AE7" t="n">
-        <v>586441.1657699825</v>
+        <v>635643.8975430768</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.659883212486707e-06</v>
+        <v>4.990984190607391e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.806249999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>530472.0439842403</v>
+        <v>574978.9360933781</v>
       </c>
     </row>
     <row r="8">
@@ -23704,28 +23704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>429.3034876770178</v>
+        <v>465.2639797893912</v>
       </c>
       <c r="AB8" t="n">
-        <v>587.3919713728877</v>
+        <v>636.594703145982</v>
       </c>
       <c r="AC8" t="n">
-        <v>531.3321060348683</v>
+        <v>575.838998144006</v>
       </c>
       <c r="AD8" t="n">
-        <v>429303.4876770178</v>
+        <v>465263.9797893912</v>
       </c>
       <c r="AE8" t="n">
-        <v>587391.9713728877</v>
+        <v>636594.703145982</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.664479699447356e-06</v>
+        <v>4.999609003022176e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>531332.1060348683</v>
+        <v>575838.998144006</v>
       </c>
     </row>
   </sheetData>
@@ -24001,28 +24001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.3241083424462</v>
+        <v>389.0397323040415</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.7511914248173</v>
+        <v>532.3013249600605</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.9187970151699</v>
+        <v>481.4992335954732</v>
       </c>
       <c r="AD2" t="n">
-        <v>343324.1083424462</v>
+        <v>389039.7323040415</v>
       </c>
       <c r="AE2" t="n">
-        <v>469751.1914248173</v>
+        <v>532301.3249600604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293898269398857e-06</v>
+        <v>5.736865488901188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.652083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>424918.7970151699</v>
+        <v>481499.2335954732</v>
       </c>
     </row>
   </sheetData>
@@ -24298,28 +24298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.184649406091</v>
+        <v>679.355185957442</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.4559038033129</v>
+        <v>929.5237364625276</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.3808140368581</v>
+        <v>840.8112956493012</v>
       </c>
       <c r="AD2" t="n">
-        <v>636184.649406091</v>
+        <v>679355.185957442</v>
       </c>
       <c r="AE2" t="n">
-        <v>870455.9038033129</v>
+        <v>929523.7364625277</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097258620678058e-06</v>
+        <v>4.318849984960143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.110416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>787380.814036858</v>
+        <v>840811.2956493011</v>
       </c>
     </row>
     <row r="3">
@@ -24404,28 +24404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.3099223339956</v>
+        <v>403.6665119110039</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.0426167750316</v>
+        <v>552.3143301062804</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.5557424723129</v>
+        <v>499.6022256189672</v>
       </c>
       <c r="AD3" t="n">
-        <v>371309.9223339956</v>
+        <v>403666.5119110039</v>
       </c>
       <c r="AE3" t="n">
-        <v>508042.6167750316</v>
+        <v>552314.3301062804</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753396994724965e-06</v>
+        <v>5.670024884872146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.178125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>459555.7424723129</v>
+        <v>499602.2256189671</v>
       </c>
     </row>
     <row r="4">
@@ -24510,28 +24510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.5994485914301</v>
+        <v>395.9560381684382</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.4928064383593</v>
+        <v>541.764519769608</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.0127912274207</v>
+        <v>490.0592743740751</v>
       </c>
       <c r="AD4" t="n">
-        <v>363599.4485914301</v>
+        <v>395956.0381684382</v>
       </c>
       <c r="AE4" t="n">
-        <v>497492.8064383593</v>
+        <v>541764.519769608</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.785730344167795e-06</v>
+        <v>5.73660841652535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.106249999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>450012.7912274207</v>
+        <v>490059.2743740751</v>
       </c>
     </row>
     <row r="5">
@@ -24616,28 +24616,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.7186107831945</v>
+        <v>397.0752003602027</v>
       </c>
       <c r="AB5" t="n">
-        <v>499.0240935230827</v>
+        <v>543.2958068543315</v>
       </c>
       <c r="AC5" t="n">
-        <v>451.397934421953</v>
+        <v>491.4444175686073</v>
       </c>
       <c r="AD5" t="n">
-        <v>364718.6107831945</v>
+        <v>397075.2003602027</v>
       </c>
       <c r="AE5" t="n">
-        <v>499024.0935230827</v>
+        <v>543295.8068543315</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789649538039652e-06</v>
+        <v>5.74467914763483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.097916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>451397.934421953</v>
+        <v>491444.4175686073</v>
       </c>
     </row>
   </sheetData>
@@ -24913,28 +24913,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>928.9609996561351</v>
+        <v>985.0969440994107</v>
       </c>
       <c r="AB2" t="n">
-        <v>1271.045422596404</v>
+        <v>1347.853098326777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1149.738631387257</v>
+        <v>1219.215890346173</v>
       </c>
       <c r="AD2" t="n">
-        <v>928960.9996561351</v>
+        <v>985096.9440994108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1271045.422596404</v>
+        <v>1347853.098326777</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.736366965671308e-06</v>
+        <v>3.440062644612554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.432291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1149738.631387257</v>
+        <v>1219215.890346173</v>
       </c>
     </row>
     <row r="3">
@@ -25019,28 +25019,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.5569007880624</v>
+        <v>529.516789248585</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.9921287999676</v>
+        <v>724.5082316819459</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.717090542595</v>
+        <v>655.3621829039098</v>
       </c>
       <c r="AD3" t="n">
-        <v>484556.9007880624</v>
+        <v>529516.789248585</v>
       </c>
       <c r="AE3" t="n">
-        <v>662992.1287999677</v>
+        <v>724508.2316819459</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479872885687572e-06</v>
+        <v>4.913084760365249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>599717.090542595</v>
+        <v>655362.1829039098</v>
       </c>
     </row>
     <row r="4">
@@ -25125,28 +25125,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.9768712818958</v>
+        <v>426.8514188878468</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.6376069181233</v>
+        <v>584.0369426779037</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.7578072403452</v>
+        <v>528.2972765697211</v>
       </c>
       <c r="AD4" t="n">
-        <v>381976.8712818958</v>
+        <v>426851.4188878468</v>
       </c>
       <c r="AE4" t="n">
-        <v>522637.6069181233</v>
+        <v>584036.9426779037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737246366564422e-06</v>
+        <v>5.422989011472707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>472757.8072403452</v>
+        <v>528297.2765697212</v>
       </c>
     </row>
     <row r="5">
@@ -25231,28 +25231,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.0361046085447</v>
+        <v>422.9106522144957</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.2456761012888</v>
+        <v>578.6450118610694</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.880474733047</v>
+        <v>523.4199440624229</v>
       </c>
       <c r="AD5" t="n">
-        <v>378036.1046085447</v>
+        <v>422910.6522144956</v>
       </c>
       <c r="AE5" t="n">
-        <v>517245.6761012888</v>
+        <v>578645.0118610694</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.753125854388834e-06</v>
+        <v>5.45444920045368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.948958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>467880.474733047</v>
+        <v>523419.944062423</v>
       </c>
     </row>
     <row r="6">
@@ -25337,28 +25337,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>378.9305627005225</v>
+        <v>412.7144846868431</v>
       </c>
       <c r="AB6" t="n">
-        <v>518.4695131234388</v>
+        <v>564.6941656265707</v>
       </c>
       <c r="AC6" t="n">
-        <v>468.987510467469</v>
+        <v>510.8005470124092</v>
       </c>
       <c r="AD6" t="n">
-        <v>378930.5627005225</v>
+        <v>412714.4846868431</v>
       </c>
       <c r="AE6" t="n">
-        <v>518469.5131234388</v>
+        <v>564694.1656265707</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.757370865985459e-06</v>
+        <v>5.462859349983246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.939583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>468987.5104674689</v>
+        <v>510800.5470124092</v>
       </c>
     </row>
   </sheetData>
